--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\U\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\U\2021\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12510FB6-8A3B-4195-9E97-06DA7571D040}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26F2A3B-60E6-4D1C-ABC8-798AEB01FC27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Progreso de Tareas</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Documentarse mas sobre la tarjeta NIC, buscar el error y porque la cámara no se detecta en el software eCamera. Ese es el primer paso para comenzar a programar las cámaras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conecte la camara al eCamera, logré que el programa detectara la cámara, pero esta no muestra la imagen por un aparente error. Al final la ip de la tarjeta NIC debia estár en la misma subred que las cámaras, y la ip predeterminada de la cámara era 192.168.1.x así que al considerar esa IP la cámara fue detectada. </t>
+  </si>
+  <si>
+    <t>Mañana lo intentare en otro computador o  intentare solucionar el problema. En todo caso eCamera solo puede utilizar una cámara a la vez, tambien probare con el eSDK ya que se como utilizarlo y a compilado en visual basic.</t>
   </si>
 </sst>
 </file>
@@ -681,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,14 +791,19 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="13">
         <v>44214</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\U\2021\practica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/br/Repos/practica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26F2A3B-60E6-4D1C-ABC8-798AEB01FC27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE9124-A479-374A-A600-B0A40F8B7DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Progreso de Tareas</t>
   </si>
@@ -235,13 +235,42 @@
   </si>
   <si>
     <t>Mañana lo intentare en otro computador o  intentare solucionar el problema. En todo caso eCamera solo puede utilizar una cámara a la vez, tambien probare con el eSDK ya que se como utilizarlo y a compilado en visual basic.</t>
+  </si>
+  <si>
+    <r>
+      <t>Conecté la cámara con el lente y el adaptador, esto confirma que no tiene nada que ver con el lente el hecho de que no se pueda ver en stream.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Despues de instalar nuevamente windows:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Efectivamente la cámara es  detectada por los ejemplos de la eSDK, pero no es posible hacer streaming. Al final era solo un error de conexion, al conectarla de nuevo la cámara fue detectada en eCapture, en el eSDK la cámara fue detectada, pero no la muestra en stream. Pero esta si sirve ya que en cierto programa se guardan las capturas obtenidas por la cámara. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe existir un error en windows, intentare instalar una version nueva de windows con licencia. Si esto no sirve intentaré utilizar ubuntu, y si esto no sirve contactaré a la empresa, quizas es un error de la licencia. Actualizar el sistema operativo sirvió </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer documentación para programadores y asi comprender mejor los códigos de ejemplo que vienen includios en eSDK. A pesar de que dice stream no se muestra ninguna imagen de las cámaras en alguna interfaz, buscar la forma de visualizar las imágenes para monitoreo de lugares donde ubicar las cámaras, ya que seria muy complicado hacerlo sin ver lo que las cámaras están mirando. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +307,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -389,7 +423,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -687,29 +721,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="37.1640625" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="15" t="s">
         <v>60</v>
       </c>
@@ -723,12 +757,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -742,7 +776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -759,7 +793,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -773,7 +807,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -782,7 +816,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -791,7 +825,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -806,16 +840,24 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="176" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <v>44215</v>
       </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -824,7 +866,7 @@
       </c>
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -833,7 +875,7 @@
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -842,7 +884,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -851,7 +893,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -860,7 +902,7 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -869,7 +911,7 @@
       </c>
       <c r="D19" s="8"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -878,7 +920,7 @@
       </c>
       <c r="D20" s="8"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -887,7 +929,7 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -896,7 +938,7 @@
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -905,7 +947,7 @@
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -914,7 +956,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -923,7 +965,7 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -932,7 +974,7 @@
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
@@ -941,7 +983,7 @@
       </c>
       <c r="D27" s="8"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -950,7 +992,7 @@
       </c>
       <c r="D28" s="8"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>29</v>
       </c>
@@ -959,7 +1001,7 @@
       </c>
       <c r="D29" s="8"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>30</v>
       </c>
@@ -968,7 +1010,7 @@
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -977,7 +1019,7 @@
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>32</v>
       </c>
@@ -986,7 +1028,7 @@
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
@@ -995,7 +1037,7 @@
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
@@ -1004,7 +1046,7 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>35</v>
       </c>
@@ -1013,7 +1055,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>36</v>
       </c>
@@ -1025,7 +1067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
@@ -1034,7 +1076,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
@@ -1043,7 +1085,7 @@
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
@@ -1052,7 +1094,7 @@
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>40</v>
       </c>
@@ -1061,7 +1103,7 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -1070,7 +1112,7 @@
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -1079,7 +1121,7 @@
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>43</v>
       </c>
@@ -1088,7 +1130,7 @@
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -1097,7 +1139,7 @@
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
@@ -1106,7 +1148,7 @@
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>46</v>
       </c>
@@ -1115,7 +1157,7 @@
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>47</v>
       </c>
@@ -1124,7 +1166,7 @@
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
@@ -1133,7 +1175,7 @@
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -1142,7 +1184,7 @@
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -1151,7 +1193,7 @@
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>51</v>
       </c>
@@ -1160,7 +1202,7 @@
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>52</v>
       </c>
@@ -1169,7 +1211,7 @@
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>53</v>
       </c>
@@ -1178,7 +1220,7 @@
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>54</v>
       </c>
@@ -1187,7 +1229,7 @@
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>55</v>
       </c>
@@ -1196,7 +1238,7 @@
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>56</v>
       </c>

--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/br/Repos/practica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAE9124-A479-374A-A600-B0A40F8B7DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD03E82D-09D8-DB4C-8792-2EA2204C39F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Progreso de Tareas</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t xml:space="preserve">Leer documentación para programadores y asi comprender mejor los códigos de ejemplo que vienen includios en eSDK. A pesar de que dice stream no se muestra ninguna imagen de las cámaras en alguna interfaz, buscar la forma de visualizar las imágenes para monitoreo de lugares donde ubicar las cámaras, ya que seria muy complicado hacerlo sin ver lo que las cámaras están mirando. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisión de algoritmos de ejemplos del eSDK EVT_BenchmarkHS este corre las cámaras pero directamente en la consola, no muestra una interfaz gráfica pero si detecta ya activa las cámaras. Se reviso tambie el algoritmo de ejemplo EVT_ImageFormatControl, en este algoritmo se puede escoger el formato de los pixels y se guardan tres imagenes una correspondiente a cada formato. Se reviso el algoritmo de ejemplo EVT_AcquisitionControl  el cual activa la cámara y guarda una cantidad determinada de frames, estás son guardadas como imagenes en el computador, se les puede agregar una ruta para que se guarden en un directorio distinto. Se intento utilizar vlc como medio de stream para la cámara, pero son lo con la IP está no es identificada. Se intento utilizar opencv pero tampoco tira error en el algoritmo, aun cuando el algoritmo no tiene que ver con lo que se está implementando. </t>
+  </si>
+  <si>
+    <t>Aunque una opción es visualizar y configurar lás cámaras en eCapture y luego utilizar eSDK para crear el algoritmo de adquisición de imágenes, lo malo de está opción es que estariamos dependiendo de un programa más.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lograr visualizar la imagen de las cámaras mediante c++ para asi tener todo en ese entorno. Intentar implementar opencv para abrir cámara IP mediante un algoritmo a parte para probar la apertura de la cámara, otra posibilidad es poder abrir el video en VLC mediante sus opciones de transmisión de cámaras IP, ya que las cámaras son identificadas con una IP. Si la configuración IP en opencv no sirve, contactaré a la empresa para saber si en primer lugar es posible mostrar las imagenes mediante c++ predefinida por EVT. La ultima opción seria intentar abrir la imagen que se va guardando y mostrar solo algunos fotogramas, ahora no se si se puede renovar la imagen sin crear nuevas ventanas. </t>
   </si>
 </sst>
 </file>
@@ -721,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="150" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="140" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -857,14 +866,22 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="288" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="13">
         <v>44216</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">

--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/br/Repos/practica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastián Romero\Documents\repos\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD03E82D-09D8-DB4C-8792-2EA2204C39F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF86FD-782F-4CC0-90AC-1D39A84AD78B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Progreso de Tareas</t>
   </si>
@@ -202,9 +201,6 @@
   </si>
   <si>
     <t>Día 49</t>
-  </si>
-  <si>
-    <t>Día 50</t>
   </si>
   <si>
     <t>Objetivo: Tener sincronizadas las cámaras</t>
@@ -274,12 +270,33 @@
   <si>
     <t xml:space="preserve">Lograr visualizar la imagen de las cámaras mediante c++ para asi tener todo en ese entorno. Intentar implementar opencv para abrir cámara IP mediante un algoritmo a parte para probar la apertura de la cámara, otra posibilidad es poder abrir el video en VLC mediante sus opciones de transmisión de cámaras IP, ya que las cámaras son identificadas con una IP. Si la configuración IP en opencv no sirve, contactaré a la empresa para saber si en primer lugar es posible mostrar las imagenes mediante c++ predefinida por EVT. La ultima opción seria intentar abrir la imagen que se va guardando y mostrar solo algunos fotogramas, ahora no se si se puede renovar la imagen sin crear nuevas ventanas. </t>
   </si>
+  <si>
+    <t xml:space="preserve">Se logro visualizar la imagen en forma de video, se utilizo como base que un video es un conjunto de imágenes que se vizualisan y se refrescan a una cantidad determinada de ciclos por segundo. El problema es que al ser programación secuencial las fotografias no se toman al mismo tiempo. La idea de la sincronización es que las capturas se generan al mismo tiempo.Por eso ya se deja de lado el tema de la interfaz gráfica, aunque es importante, se debe asegurar a travez de señales externas que las cámaras actuen al mismo tiempo. </t>
+  </si>
+  <si>
+    <t>Logré ver en video dos cámaras juntas.</t>
+  </si>
+  <si>
+    <t>Reunion y preparacion de la presentacion para la reunion.</t>
+  </si>
+  <si>
+    <t>Trabajo moviendo el lab</t>
+  </si>
+  <si>
+    <t>No fui al laboratorio.</t>
+  </si>
+  <si>
+    <t>Hoy empecé a leer acerca de las entradas y salidas de la cámara, estas pueden ser utilizadas como entradas o salidas de señales para activar ciertos comportamientos. Y en general para que las lineas de tiempo de las cámaras sean iguales, esa es la idea de sincronización del sistema de cámaras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mañana seguiré con el estudio y la lectura de los codigos de ejemplo. Una idea seria poder ingresar una señal desde una protoboard. Y poder hacer algo con la cámara mediante esa señal de entrada, por ejemplo sacar una foto cuando se hace click en un boton que deja pasar una tensión que es considerado como un nivel lógico alto. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,7 +340,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,6 +371,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -367,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -414,6 +437,8 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -730,31 +755,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="140" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="37.1640625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="27" customHeight="1">
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" customHeight="1">
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1">
       <c r="C4" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>3</v>
@@ -763,15 +788,15 @@
         <v>5</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="71.25" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
@@ -785,7 +810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="135">
       <c r="A8" s="11" t="s">
         <v>8</v>
       </c>
@@ -793,16 +818,16 @@
         <v>44210</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F8" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="113.25" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>9</v>
       </c>
@@ -810,13 +835,13 @@
         <v>44211</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
@@ -825,7 +850,7 @@
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
@@ -834,7 +859,7 @@
       </c>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="120">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -842,14 +867,14 @@
         <v>44214</v>
       </c>
       <c r="D12" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>66</v>
-      </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="176" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="195">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -857,16 +882,16 @@
         <v>44215</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="288" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:7" ht="315">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -874,34 +899,34 @@
         <v>44216</v>
       </c>
       <c r="D14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="18">
         <v>44217</v>
       </c>
       <c r="D15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="18">
         <v>44218</v>
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -910,7 +935,7 @@
       </c>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -919,52 +944,60 @@
       </c>
       <c r="D18" s="8"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="195">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="13">
         <v>44221</v>
       </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="19">
         <v>44222</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="19">
         <v>44223</v>
       </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="18">
         <v>44224</v>
       </c>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="19">
         <v>44225</v>
       </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -973,7 +1006,7 @@
       </c>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -982,282 +1015,287 @@
       </c>
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>26</v>
-      </c>
+    <row r="26" spans="1:5">
+      <c r="A26" s="11"/>
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5">
       <c r="A27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="18">
+        <v>44228</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="135">
+      <c r="A28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="1">
-        <v>44228</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="C28" s="19">
+        <v>44229</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="1">
-        <v>44229</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
+      <c r="C29" s="19">
+        <v>44230</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" s="1">
-        <v>44230</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>44231</v>
       </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <v>44232</v>
       </c>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5">
       <c r="A32" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="4">
         <v>44233</v>
       </c>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="4">
         <v>44234</v>
       </c>
       <c r="D33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <v>44235</v>
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <v>44236</v>
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <v>44237</v>
       </c>
       <c r="D36" s="8"/>
-      <c r="E36" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" ht="30">
       <c r="A37" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
         <v>44238</v>
       </c>
       <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>44239</v>
       </c>
       <c r="D38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="4">
         <v>44240</v>
       </c>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="4">
         <v>44241</v>
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1">
         <v>44242</v>
       </c>
       <c r="D41" s="8"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1">
         <v>44243</v>
       </c>
       <c r="D42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1">
         <v>44244</v>
       </c>
       <c r="D43" s="8"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C44" s="1">
         <v>44245</v>
       </c>
       <c r="D44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="1">
         <v>44246</v>
       </c>
       <c r="D45" s="8"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="4">
         <v>44247</v>
       </c>
       <c r="D46" s="8"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" s="4">
         <v>44248</v>
       </c>
       <c r="D47" s="8"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1">
         <v>44249</v>
       </c>
       <c r="D48" s="8"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="1">
         <v>44250</v>
       </c>
       <c r="D49" s="8"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C50" s="1">
         <v>44251</v>
       </c>
       <c r="D50" s="8"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C51" s="1">
         <v>44252</v>
       </c>
       <c r="D51" s="8"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C52" s="1">
         <v>44253</v>
       </c>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C53" s="4">
         <v>44254</v>
       </c>
       <c r="D53" s="8"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4">
         <v>44255</v>
       </c>
       <c r="D54" s="8"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1">
         <v>44256</v>
       </c>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1">
         <v>44257</v>

--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bastián Romero\Documents\repos\practica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF86FD-782F-4CC0-90AC-1D39A84AD78B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7FA4F-A21F-4045-8AD9-DD984BC574E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1040,7 +1040,7 @@
       <c r="C28" s="19">
         <v>44229</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="10" t="s">
         <v>77</v>
       </c>
       <c r="E28" s="10" t="s">

--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B7FA4F-A21F-4045-8AD9-DD984BC574E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51087763-6BF9-4312-931E-53227B25860E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Progreso de Tareas</t>
   </si>
@@ -290,6 +290,21 @@
   </si>
   <si>
     <t xml:space="preserve">Mañana seguiré con el estudio y la lectura de los codigos de ejemplo. Una idea seria poder ingresar una señal desde una protoboard. Y poder hacer algo con la cámara mediante esa señal de entrada, por ejemplo sacar una foto cuando se hace click en un boton que deja pasar una tensión que es considerado como un nivel lógico alto. </t>
+  </si>
+  <si>
+    <t>Conexión establecida con las 4 cámaras al programa en c++. Si bien no se utilizan recursos excesivos del procesador, se necesitan minimo 16 gb de ram para poder establecer la conexión de las 4 cámaras ya que estas ocupan un espacio en la memoria. Tambien se ha establecido la conexión entre el arduino y las cámaras como medio para activar el reloj, las señales digitales tienen la capacidad de tener altas velocidades, por lo que si se utiliza como temporizador es suficiente por le hecho de que es capaz de trabajar en los milisegundos. Así las cámaras se controlan por Hardware y no por software.</t>
+  </si>
+  <si>
+    <t>Optimizar el codigo, convertir las opciones de cada cámara en una función y esta llamarla para el numero de cámaras determinada, ya que hacer el mismo codigo para cada una de las cámaras hacen un código extremadamente e inecesariamente largo. Comprobar velocidad máxima del arduino, para ver si se obtienen los 1000 fps.</t>
+  </si>
+  <si>
+    <t>Tanto el tiempo en el arduino como la configuracion de las camaras es razonable para adquirir una cierta cantidad de frames, el problema es que el hecho de guardar imágenes alentiza el proceso guardando una cantidad de frames mucho menor que los que se pretenden adquirir en ese momento, luego bloquie la opción de guardar imagenes y la cámara efectivamente procesa esa cantidad de frames en ese momento, parece que la cámara si guarda los frames, pero el guardarlos requiere de un tiempo extra, por lo que se necesita mas tiempo para guardar estos frames. El codigo aun no se ha optimizado y el programa sigue dando error con las 4 cámaras conectadas, al parecer sigue siendo la ram, pero puede ser tambien la estructura del programa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizar el codigo. Preparar el PPT para la presentacion de esta semana. Intentar empaquetar las imágenes en un video de manera externa o en c++. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimicé el código, dentro de ciclos for uni tanto la configuracion como los parametros de la librería EVT para reducir las replicas de los codigos, así es mas sencillo configurar las camaras al menos en esta etapa donde los parametros aun no se modifican con total libertad, pero si es util para no estar comentando segmentos de codigos, cuando se puede configurar para tener cierta cantidad de camaras activadas modificando una variable. </t>
   </si>
 </sst>
 </file>
@@ -390,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -439,6 +454,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1060,7 +1078,7 @@
       <c r="A30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="18">
         <v>44231</v>
       </c>
       <c r="D30" s="8"/>
@@ -1069,7 +1087,7 @@
       <c r="A31" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="18">
         <v>44232</v>
       </c>
       <c r="D31" s="8"/>
@@ -1101,32 +1119,44 @@
       </c>
       <c r="D34" s="8"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="210">
       <c r="A35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="19">
         <v>44236</v>
       </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="270">
       <c r="A36" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="19">
         <v>44237</v>
       </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="30">
+      <c r="D36" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="150">
       <c r="A37" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1">
         <v>44238</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E37" s="12" t="s">
         <v>56</v>
       </c>

--- a/Calendario practica.xlsx
+++ b/Calendario practica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\practica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51087763-6BF9-4312-931E-53227B25860E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F47D87-64A5-4DB2-92F8-5378DB0D7108}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{927E8441-6BF7-471D-82CE-F14F56DB68D0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Progreso de Tareas</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t xml:space="preserve">Optimicé el código, dentro de ciclos for uni tanto la configuracion como los parametros de la librería EVT para reducir las replicas de los codigos, así es mas sencillo configurar las camaras al menos en esta etapa donde los parametros aun no se modifican con total libertad, pero si es util para no estar comentando segmentos de codigos, cuando se puede configurar para tener cierta cantidad de camaras activadas modificando una variable. </t>
+  </si>
+  <si>
+    <t>Programar el pulsador para que inicie lás cámaras, intento de poder inciar el programa pero utilizar los parametros del software, esto no se puede ya que al utilizar hardware se utiliza el parametro del pulsador.</t>
   </si>
 </sst>
 </file>
@@ -773,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3CEFCA-1939-453A-A682-61B8C78B7456}">
   <dimension ref="A2:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F41:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1161,14 +1164,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="30">
       <c r="A38" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>44239</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="11" t="s">
@@ -1188,14 +1193,16 @@
       </c>
       <c r="D40" s="8"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="75">
       <c r="A41" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1">
         <v>44242</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="11" t="s">
@@ -1205,6 +1212,7 @@
         <v>44243</v>
       </c>
       <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="11" t="s">
@@ -1214,6 +1222,7 @@
         <v>44244</v>
       </c>
       <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="11" t="s">
@@ -1223,6 +1232,7 @@
         <v>44245</v>
       </c>
       <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="11" t="s">
@@ -1232,6 +1242,7 @@
         <v>44246</v>
       </c>
       <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="11" t="s">
